--- a/Discharge/Station2_2021-06-28_1200.xlsx
+++ b/Discharge/Station2_2021-06-28_1200.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Discharge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/Discharge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E850E2E4-ABF6-45A0-BD02-8E66C7CEA91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E850E2E4-ABF6-45A0-BD02-8E66C7CEA91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BA357F8-990E-4E1F-8096-488277AE1BCF}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="870" windowWidth="9380" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="8720" windowHeight="9730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>x</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Qtotal</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Atotal</t>
   </si>
 </sst>
 </file>
@@ -369,15 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,8 +402,20 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>35</v>
       </c>
@@ -409,8 +427,24 @@
         <f>SUM(E2:E20)</f>
         <v>6.1150000000000006E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2">
+        <f>(D2-0)*B2/100</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G11)</f>
+        <v>6.0250000000000005E-2</v>
+      </c>
+      <c r="J2">
+        <f>H2</f>
+        <v>6.0250000000000005E-2</v>
+      </c>
+      <c r="K2">
+        <f>F2</f>
+        <v>6.1150000000000006E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>40</v>
       </c>
@@ -428,8 +462,12 @@
         <f>(D3-D2)*(B3/100)*C3</f>
         <v>1.3500000000000011E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3">
+        <f>(D3-D2)*B3/100</f>
+        <v>2.250000000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>45</v>
       </c>
@@ -447,8 +485,12 @@
         <f t="shared" ref="E4:E9" si="0">(D4-D3)*(B4/100)*C4</f>
         <v>6.2999999999999916E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4">
+        <f t="shared" ref="G4:G15" si="1">(D4-D3)*B4/100</f>
+        <v>3.4999999999999953E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>50</v>
       </c>
@@ -466,8 +508,12 @@
         <f>(D5-D4)*(B5/100)*C5</f>
         <v>1.3000000000000012E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>6.5000000000000058E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>55</v>
       </c>
@@ -478,15 +524,19 @@
         <v>0.15</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D9" si="1">(A6/100+(A7/100-A6/100)/2)</f>
+        <f t="shared" ref="D6:D9" si="2">(A6/100+(A7/100-A6/100)/2)</f>
         <v>0.57499999999999996</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>1.0499999999999986E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>6.9999999999999906E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>60</v>
       </c>
@@ -497,15 +547,19 @@
         <v>0.12</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.625</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>9.0000000000000073E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>7.5000000000000067E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>65</v>
       </c>
@@ -516,15 +570,19 @@
         <v>0.1</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>8.5000000000000082E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>8.5000000000000075E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>70</v>
       </c>
@@ -535,15 +593,19 @@
         <v>0.05</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.72499999999999998</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
         <v>6.4999999999999921E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999982E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>75</v>
       </c>
@@ -554,15 +616,19 @@
         <v>0.05</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10" si="2">(A10/100+(A11/100-A10/100)/2)</f>
+        <f t="shared" ref="D10" si="3">(A10/100+(A11/100-A10/100)/2)</f>
         <v>0.77500000000000002</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10" si="3">(D10-D9)*(B10/100)*C10</f>
+        <f t="shared" ref="E10" si="4">(D10-D9)*(B10/100)*C10</f>
         <v>6.000000000000006E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>80</v>
       </c>
@@ -573,11 +639,39 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11" si="4">(A11/100+(A12/100-A11/100)/2)</f>
+        <f t="shared" ref="D11" si="5">(A11/100+(A12/100-A11/100)/2)</f>
         <v>0.4</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11" si="5">(D11-D10)*(B11/100)*C11</f>
+        <f t="shared" ref="E11" si="6">(D11-D10)*(B11/100)*C11</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
